--- a/src/jobFiles/19682.xlsx
+++ b/src/jobFiles/19682.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>Заказ (заявка)</t>
   </si>
@@ -381,6 +381,18 @@
   </si>
   <si>
     <t>ТОРГ12 793617988заказ №U1-1997 от 30.05.2022 на 07.06.2022 Магазин № 1</t>
+  </si>
+  <si>
+    <t>Скания 20т</t>
+  </si>
+  <si>
+    <t>Е 834 ЕН 50  ВУ 6289 50</t>
+  </si>
+  <si>
+    <t>Бегежанов Калимула Хабдулхазисович    Тел:8 (927) 053-81-84  ВУ:9922 013717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бегежанов Калимула Хабдулхазисович   </t>
   </si>
 </sst>
 </file>
@@ -5866,7 +5878,7 @@
       <c r="BD37" s="21"/>
       <c r="BE37" s="22"/>
       <c r="BF37" s="98" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="BG37" s="99"/>
       <c r="BH37" s="99"/>
@@ -6157,7 +6169,7 @@
     <row r="40" spans="1:111" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="98" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C40" s="99"/>
       <c r="D40" s="99"/>
@@ -6215,7 +6227,7 @@
       <c r="BD40" s="21"/>
       <c r="BE40" s="22"/>
       <c r="BF40" s="62" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="BG40" s="62"/>
       <c r="BH40" s="62"/>
@@ -8884,7 +8896,7 @@
       <c r="BP63" s="103"/>
       <c r="BQ63" s="103"/>
       <c r="BR63" s="104" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="BS63" s="104"/>
       <c r="BT63" s="104"/>
@@ -10974,7 +10986,7 @@
       <c r="BP81" s="87"/>
       <c r="BQ81" s="87"/>
       <c r="BR81" s="60" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="BS81" s="60"/>
       <c r="BT81" s="60"/>
